--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/44_Karaman_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/44_Karaman_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9F1D960-6CEC-425F-9CDD-2679B1B78662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B6BD1E1-E3C5-4979-987A-DE698B8E8AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{E37D9357-BE08-4698-B635-8234A55662EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{1028BC4F-2BE2-47AD-BEA9-F53B4DA21586}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -914,14 +914,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{10C1919C-B7A4-4738-957D-5F8E15E8861F}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3DD36011-B87F-4B62-85D8-3B8C6F8F7ADF}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{CC1C11D5-99FA-4239-8616-72F9F99F390E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0A725FF5-4DE6-45F2-9F5C-F8B621A56F63}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0B91BEB2-5EC4-4E40-BFD1-306676413892}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B32DEF89-5E69-42F6-AB67-91030AE01F20}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{F0712C75-D2B8-48FB-AFE6-F4738D0710BF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FA05CFD4-1273-4A63-9574-99351C3954D1}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{837162FF-5E2A-4B09-9EEF-98E4638893D3}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D8A8A984-5F08-4975-8EAA-70010AF01641}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{E2F32DFE-3475-473C-9E9C-8790F5A4F766}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5B7FFEFB-5A1A-4A86-9F85-32FAD6D7CB5B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{02E0AB0A-DF1C-48A3-BD08-44EEED6FC5D5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{ADBE45C9-F28C-421B-97C0-7BD2E601FF30}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{4F5B62E2-156F-4AB9-9728-E1DD39FF9ED3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{71D449F3-0B89-41DB-9ACA-FB8833F420CE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1291,7 +1291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994225A9-0DEC-4714-BD84-EC59B2A183FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08CF627-57A0-4DD1-8632-1B656A708E14}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2566,7 +2566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B43D2DD-BB42-47E5-9B36-48990BB6916E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34029AAF-BF8D-4340-8FD7-F7F4A0577FCC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3834,7 +3834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE33DE2A-7094-4ECE-8809-5BF0A558417C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BBA474-B278-4DBA-80A6-C38D4B3A1733}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5096,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21375A26-7435-4E72-8365-981D7421CA4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DD8BA3-1085-45A0-98E2-DEE6CA07424C}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6354,7 +6354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E84FDC-4F20-44A1-B066-723131F93951}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE368077-D61D-4E3B-B4E5-462A8836ADF0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7629,7 +7629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C4935A-49D6-4756-8DEF-08724FFAB8A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2717F3BD-26AB-4DD5-B7E0-02C0C2E77221}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8906,7 +8906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896DD3B6-F774-4FD2-9FE4-0964D8D5765F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6C5DDA-70B1-443D-9F1A-8A8CB4D7E616}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10183,7 +10183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8631A1BF-00EB-45BC-8E3F-908691AABDA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F46A40-1AF6-40E7-B474-892B53317F32}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11454,7 +11454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9A2189-1030-4EEC-A433-8171EE4D48DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD5280A-4DF5-4C48-A65F-2049CE293994}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12725,7 +12725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DCDBC4-CAFB-4F18-99BA-E23B1AA78712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804B79DA-D7BC-42FB-BB38-85F8DF077B18}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13999,7 +13999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F3F8A-2050-47CA-86C1-C4B84AB611C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F868E1-B5DF-4737-AF92-95FB04B4295E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15267,7 +15267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B8AB8B-AA94-483E-BEC0-52DB0CAE93C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE6E142-1CA3-40FA-9A2C-04D86FB14F57}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
